--- a/output/Clustering/scats/stats_compo_clust_scats_tot_PCs_k2.xlsx
+++ b/output/Clustering/scats/stats_compo_clust_scats_tot_PCs_k2.xlsx
@@ -12,138 +12,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">median_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Zn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Mn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_As</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_type</t>
+    <t xml:space="preserve">statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">scats</t>
+    <t xml:space="preserve">all samples</t>
   </si>
 </sst>
 </file>
@@ -521,452 +452,428 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
         <v>161219.683</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>93140.716</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>8512.678</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2160.665</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9997.904</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>818.201</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>360.113</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>56.512</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>26.298</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>10.897</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>2.605</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>3.99</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.603</v>
       </c>
-      <c r="O2" t="n">
-        <v>154005.171</v>
-      </c>
-      <c r="P2" t="n">
-        <v>98392.629</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>8880.806</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1997.182</v>
-      </c>
-      <c r="S2" t="n">
-        <v>8957.726</v>
-      </c>
-      <c r="T2" t="n">
-        <v>323.033</v>
-      </c>
-      <c r="U2" t="n">
-        <v>327.059</v>
-      </c>
-      <c r="V2" t="n">
-        <v>40.964</v>
-      </c>
-      <c r="W2" t="n">
-        <v>20.568</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9.208</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2.609</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.516</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>48091.514</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>32233.52</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3289.329</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>610.576</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>4361.603</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>914.13</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>186.771</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>53.748</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>14.657</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.031</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>3.177</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="AO2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="n">
+        <v>154005.171</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98392.629</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8880.806</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1997.182</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8957.726</v>
+      </c>
+      <c r="H3" t="n">
+        <v>323.033</v>
+      </c>
+      <c r="I3" t="n">
+        <v>327.059</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.964</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.568</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.208</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.609</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.516</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48091.514</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32233.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3289.329</v>
+      </c>
+      <c r="F4" t="n">
+        <v>610.576</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4361.603</v>
+      </c>
+      <c r="H4" t="n">
+        <v>914.13</v>
+      </c>
+      <c r="I4" t="n">
+        <v>186.771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>53.748</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.657</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.879</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
         <v>25040.641</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D5" t="n">
         <v>17796.812</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E5" t="n">
         <v>5361.978</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F5" t="n">
         <v>2376.88</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G5" t="n">
         <v>9210.025</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H5" t="n">
         <v>5455.522</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I5" t="n">
         <v>446.305</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J5" t="n">
         <v>266.219</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K5" t="n">
         <v>133.76</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L5" t="n">
         <v>43.665</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M5" t="n">
         <v>4.413</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N5" t="n">
         <v>24.952</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O5" t="n">
         <v>4.41</v>
       </c>
-      <c r="O3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
         <v>13954.563</v>
       </c>
-      <c r="P3" t="n">
+      <c r="D6" t="n">
         <v>12847.824</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="E6" t="n">
         <v>5473.873</v>
       </c>
-      <c r="R3" t="n">
+      <c r="F6" t="n">
         <v>2231.349</v>
       </c>
-      <c r="S3" t="n">
+      <c r="G6" t="n">
         <v>9017.108</v>
       </c>
-      <c r="T3" t="n">
+      <c r="H6" t="n">
         <v>4315.638</v>
       </c>
-      <c r="U3" t="n">
+      <c r="I6" t="n">
         <v>454.453</v>
       </c>
-      <c r="V3" t="n">
+      <c r="J6" t="n">
         <v>235.579</v>
       </c>
-      <c r="W3" t="n">
+      <c r="K6" t="n">
         <v>92.943</v>
       </c>
-      <c r="X3" t="n">
+      <c r="L6" t="n">
         <v>38.803</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="M6" t="n">
         <v>3.958</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="N6" t="n">
         <v>20.688</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="O6" t="n">
         <v>4.089</v>
       </c>
-      <c r="AB3" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="n">
         <v>25659.527</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="D7" t="n">
         <v>14625.713</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="E7" t="n">
         <v>2380.638</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="F7" t="n">
         <v>1340.623</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="G7" t="n">
         <v>5091.734</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="H7" t="n">
         <v>4861.308</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="I7" t="n">
         <v>256.509</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="J7" t="n">
         <v>196.586</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="K7" t="n">
         <v>118.845</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="L7" t="n">
         <v>24.561</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="M7" t="n">
         <v>2.325</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="N7" t="n">
         <v>23.142</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="O7" t="n">
         <v>3.577</v>
       </c>
-      <c r="AO3"/>
-    </row>
-    <row r="4">
-      <c r="A4"/>
-      <c r="B4" t="n">
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
         <v>79042.675</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D8" t="n">
         <v>47674.567</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E8" t="n">
         <v>6611.394</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F8" t="n">
         <v>2291.14</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G8" t="n">
         <v>9522.46</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H8" t="n">
         <v>3616.584</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I8" t="n">
         <v>412.125</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J8" t="n">
         <v>183.06</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K8" t="n">
         <v>91.146</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L8" t="n">
         <v>30.671</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M8" t="n">
         <v>3.696</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N8" t="n">
         <v>16.639</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O8" t="n">
         <v>2.901</v>
       </c>
-      <c r="O4" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="n">
         <v>50356.178</v>
       </c>
-      <c r="P4" t="n">
+      <c r="D9" t="n">
         <v>28174.344</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="E9" t="n">
         <v>6184.915</v>
       </c>
-      <c r="R4" t="n">
+      <c r="F9" t="n">
         <v>2086.091</v>
       </c>
-      <c r="S4" t="n">
+      <c r="G9" t="n">
         <v>8987.417</v>
       </c>
-      <c r="T4" t="n">
+      <c r="H9" t="n">
         <v>1870.37</v>
       </c>
-      <c r="U4" t="n">
+      <c r="I9" t="n">
         <v>389.876</v>
       </c>
-      <c r="V4" t="n">
+      <c r="J9" t="n">
         <v>111.09</v>
       </c>
-      <c r="W4" t="n">
+      <c r="K9" t="n">
         <v>37.67</v>
       </c>
-      <c r="X4" t="n">
+      <c r="L9" t="n">
         <v>24.364</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="M9" t="n">
         <v>3.424</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="N9" t="n">
         <v>4.625</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="O9" t="n">
         <v>1.071</v>
       </c>
-      <c r="AB4" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
         <v>76164.127</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="D10" t="n">
         <v>43713.526</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="E10" t="n">
         <v>3158.127</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="F10" t="n">
         <v>1107.848</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="G10" t="n">
         <v>4791.458</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="H10" t="n">
         <v>4433.433</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="I10" t="n">
         <v>233.495</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="J10" t="n">
         <v>186.749</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="K10" t="n">
         <v>106.394</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="L10" t="n">
         <v>25.191</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="M10" t="n">
         <v>2.105</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="N10" t="n">
         <v>20.745</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="O10" t="n">
         <v>3.351</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
